--- a/data/derived/Figure 2 dots new version.xlsx
+++ b/data/derived/Figure 2 dots new version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maddie/GitHub/KSHV_mathematical_analysis/data/derived/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974DA28C-38C3-1848-A1D5-891E8FD314B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF89B2BB-5D36-6246-B7A1-E3960A589DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="4240" windowWidth="24100" windowHeight="16460" xr2:uid="{F08D15B2-B9BB-F749-B63E-EB2401ADBDE7}"/>
+    <workbookView xWindow="2040" yWindow="900" windowWidth="30060" windowHeight="19720" xr2:uid="{F08D15B2-B9BB-F749-B63E-EB2401ADBDE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -85,6 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -166,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -175,6 +178,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9561C-7D7E-0B4B-83D5-01616C31ABE1}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1818,8 +1823,8 @@
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>34</v>
+      <c r="A65" s="6">
+        <v>34.1</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -1841,8 +1846,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>34</v>
+      <c r="A66" s="7">
+        <v>34.1</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -1855,8 +1860,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>34</v>
+      <c r="A67" s="7">
+        <v>34.200000000000003</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1878,8 +1883,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>34</v>
+      <c r="A68" s="7">
+        <v>34.200000000000003</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1901,8 +1906,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>34</v>
+      <c r="A69" s="7">
+        <v>34.200000000000003</v>
       </c>
       <c r="B69" s="3">
         <v>3</v>
